--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4327,28 +4327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9499.918133411642</v>
+        <v>9682.681550416224</v>
       </c>
       <c r="AB2" t="n">
-        <v>12998.20709694353</v>
+        <v>13248.27206704211</v>
       </c>
       <c r="AC2" t="n">
-        <v>11757.67645470898</v>
+        <v>11983.87557502974</v>
       </c>
       <c r="AD2" t="n">
-        <v>9499918.133411642</v>
+        <v>9682681.550416224</v>
       </c>
       <c r="AE2" t="n">
-        <v>12998207.09694353</v>
+        <v>13248272.06704211</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.174520643616316e-07</v>
+        <v>9.574217954859349e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.36770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>11757676.45470898</v>
+        <v>11983875.57502974</v>
       </c>
     </row>
     <row r="3">
@@ -4433,28 +4433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3148.362324447231</v>
+        <v>3245.927129356658</v>
       </c>
       <c r="AB3" t="n">
-        <v>4307.728228251919</v>
+        <v>4441.220698584417</v>
       </c>
       <c r="AC3" t="n">
-        <v>3896.604692081934</v>
+        <v>4017.356828403751</v>
       </c>
       <c r="AD3" t="n">
-        <v>3148362.324447231</v>
+        <v>3245927.129356658</v>
       </c>
       <c r="AE3" t="n">
-        <v>4307728.228251919</v>
+        <v>4441220.698584417</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.752373978735572e-07</v>
+        <v>1.804444517288828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.58229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3896604.692081934</v>
+        <v>4017356.828403751</v>
       </c>
     </row>
     <row r="4">
@@ -4539,28 +4539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2414.897920708341</v>
+        <v>2500.096532803496</v>
       </c>
       <c r="AB4" t="n">
-        <v>3304.169872890543</v>
+        <v>3420.742372656631</v>
       </c>
       <c r="AC4" t="n">
-        <v>2988.824537653287</v>
+        <v>3094.271521652227</v>
       </c>
       <c r="AD4" t="n">
-        <v>2414897.920708341</v>
+        <v>2500096.532803496</v>
       </c>
       <c r="AE4" t="n">
-        <v>3304169.872890543</v>
+        <v>3420742.372656631</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142566836222244e-06</v>
+        <v>2.114047787495303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>2988824.537653287</v>
+        <v>3094271.521652226</v>
       </c>
     </row>
     <row r="5">
@@ -4645,28 +4645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2124.778347735779</v>
+        <v>2197.86670007183</v>
       </c>
       <c r="AB5" t="n">
-        <v>2907.215473977056</v>
+        <v>3007.218182073949</v>
       </c>
       <c r="AC5" t="n">
-        <v>2629.75490944323</v>
+        <v>2720.213499433925</v>
       </c>
       <c r="AD5" t="n">
-        <v>2124778.347735779</v>
+        <v>2197866.70007183</v>
       </c>
       <c r="AE5" t="n">
-        <v>2907215.473977056</v>
+        <v>3007218.182073949</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229951608297975e-06</v>
+        <v>2.275732494429635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2629754.90944323</v>
+        <v>2720213.499433925</v>
       </c>
     </row>
     <row r="6">
@@ -4751,28 +4751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1950.488433089013</v>
+        <v>2023.662036771082</v>
       </c>
       <c r="AB6" t="n">
-        <v>2668.744323628987</v>
+        <v>2768.863676378354</v>
       </c>
       <c r="AC6" t="n">
-        <v>2414.043110988019</v>
+        <v>2504.607213229381</v>
       </c>
       <c r="AD6" t="n">
-        <v>1950488.433089013</v>
+        <v>2023662.036771082</v>
       </c>
       <c r="AE6" t="n">
-        <v>2668744.323628987</v>
+        <v>2768863.676378354</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.286554766170067e-06</v>
+        <v>2.380463156016481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.81145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2414043.110988019</v>
+        <v>2504607.213229381</v>
       </c>
     </row>
     <row r="7">
@@ -4857,28 +4857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1845.351176671933</v>
+        <v>1918.354188153409</v>
       </c>
       <c r="AB7" t="n">
-        <v>2524.890891070742</v>
+        <v>2624.776832045262</v>
       </c>
       <c r="AC7" t="n">
-        <v>2283.918848133571</v>
+        <v>2374.271815092282</v>
       </c>
       <c r="AD7" t="n">
-        <v>1845351.176671932</v>
+        <v>1918354.188153409</v>
       </c>
       <c r="AE7" t="n">
-        <v>2524890.891070742</v>
+        <v>2624776.832045262</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324338832893965e-06</v>
+        <v>2.450373571869556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.47395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2283918.848133571</v>
+        <v>2374271.815092282</v>
       </c>
     </row>
     <row r="8">
@@ -4963,28 +4963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1764.787469898361</v>
+        <v>1837.790481379838</v>
       </c>
       <c r="AB8" t="n">
-        <v>2414.660073243242</v>
+        <v>2514.546014217763</v>
       </c>
       <c r="AC8" t="n">
-        <v>2184.208304849605</v>
+        <v>2274.561271808315</v>
       </c>
       <c r="AD8" t="n">
-        <v>1764787.469898361</v>
+        <v>1837790.481379837</v>
       </c>
       <c r="AE8" t="n">
-        <v>2414660.073243242</v>
+        <v>2514546.014217763</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.352056874119989e-06</v>
+        <v>2.501659205120846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.23958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2184208.304849605</v>
+        <v>2274561.271808315</v>
       </c>
     </row>
     <row r="9">
@@ -5069,28 +5069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1699.111174232581</v>
+        <v>1760.089266809523</v>
       </c>
       <c r="AB9" t="n">
-        <v>2324.798868079649</v>
+        <v>2408.231784507003</v>
       </c>
       <c r="AC9" t="n">
-        <v>2102.923326985831</v>
+        <v>2178.393522968192</v>
       </c>
       <c r="AD9" t="n">
-        <v>1699111.174232581</v>
+        <v>1760089.266809523</v>
       </c>
       <c r="AE9" t="n">
-        <v>2324798.868079649</v>
+        <v>2408231.784507003</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374085422673304e-06</v>
+        <v>2.542417787336346e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.059375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2102923.326985831</v>
+        <v>2178393.522968192</v>
       </c>
     </row>
     <row r="10">
@@ -5175,28 +5175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1629.549923278929</v>
+        <v>1702.638186106427</v>
       </c>
       <c r="AB10" t="n">
-        <v>2229.622095699057</v>
+        <v>2329.624681326227</v>
       </c>
       <c r="AC10" t="n">
-        <v>2016.830092179804</v>
+        <v>2107.288571389226</v>
       </c>
       <c r="AD10" t="n">
-        <v>1629549.923278929</v>
+        <v>1702638.186106427</v>
       </c>
       <c r="AE10" t="n">
-        <v>2229622.095699057</v>
+        <v>2329624.681326227</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391591553973951e-06</v>
+        <v>2.574808713600319e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.92083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2016830.092179804</v>
+        <v>2107288.571389226</v>
       </c>
     </row>
     <row r="11">
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1613.804099140533</v>
+        <v>1686.89236196803</v>
       </c>
       <c r="AB11" t="n">
-        <v>2208.077964456169</v>
+        <v>2308.080550083338</v>
       </c>
       <c r="AC11" t="n">
-        <v>1997.342102585358</v>
+        <v>2087.800581794781</v>
       </c>
       <c r="AD11" t="n">
-        <v>1613804.099140533</v>
+        <v>1686892.36196803</v>
       </c>
       <c r="AE11" t="n">
-        <v>2208077.964456168</v>
+        <v>2308080.550083338</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.390132709698897e-06</v>
+        <v>2.572109469744988e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.93125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1997342.102585358</v>
+        <v>2087800.581794781</v>
       </c>
     </row>
     <row r="12">
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1538.519916416634</v>
+        <v>1611.608179244132</v>
       </c>
       <c r="AB12" t="n">
-        <v>2105.070824349595</v>
+        <v>2205.073409976764</v>
       </c>
       <c r="AC12" t="n">
-        <v>1904.165819359127</v>
+        <v>1994.624298568549</v>
       </c>
       <c r="AD12" t="n">
-        <v>1538519.916416634</v>
+        <v>1611608.179244132</v>
       </c>
       <c r="AE12" t="n">
-        <v>2105070.824349595</v>
+        <v>2205073.409976764</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.412744795962233e-06</v>
+        <v>2.61394774950262e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.75625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1904165.819359127</v>
+        <v>1994624.298568549</v>
       </c>
     </row>
     <row r="13">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1494.258831738637</v>
+        <v>1567.347094566134</v>
       </c>
       <c r="AB13" t="n">
-        <v>2044.510855631914</v>
+        <v>2144.513441259084</v>
       </c>
       <c r="AC13" t="n">
-        <v>1849.385609059412</v>
+        <v>1939.844088268834</v>
       </c>
       <c r="AD13" t="n">
-        <v>1494258.831738637</v>
+        <v>1567347.094566134</v>
       </c>
       <c r="AE13" t="n">
-        <v>2044510.855631914</v>
+        <v>2144513.441259084</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.4226649370326e-06</v>
+        <v>2.632302607718871e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.68125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1849385.609059412</v>
+        <v>1939844.088268834</v>
       </c>
     </row>
     <row r="14">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1469.215627597989</v>
+        <v>1542.303890425487</v>
       </c>
       <c r="AB14" t="n">
-        <v>2010.245638898489</v>
+        <v>2110.248224525657</v>
       </c>
       <c r="AC14" t="n">
-        <v>1818.39061651949</v>
+        <v>1908.849095728913</v>
       </c>
       <c r="AD14" t="n">
-        <v>1469215.627597989</v>
+        <v>1542303.890425486</v>
       </c>
       <c r="AE14" t="n">
-        <v>2010245.638898489</v>
+        <v>2110248.224525657</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.42835442970531e-06</v>
+        <v>2.642829658754662e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.63958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1818390.61651949</v>
+        <v>1908849.095728913</v>
       </c>
     </row>
     <row r="15">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1473.069717024066</v>
+        <v>1546.157979851563</v>
       </c>
       <c r="AB15" t="n">
-        <v>2015.518974081672</v>
+        <v>2115.521559708841</v>
       </c>
       <c r="AC15" t="n">
-        <v>1823.160671993963</v>
+        <v>1913.619151203386</v>
       </c>
       <c r="AD15" t="n">
-        <v>1473069.717024066</v>
+        <v>1546157.979851563</v>
       </c>
       <c r="AE15" t="n">
-        <v>2015518.974081672</v>
+        <v>2115521.559708841</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.427770891995289e-06</v>
+        <v>2.64174996121253e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.64375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1823160.671993963</v>
+        <v>1913619.151203386</v>
       </c>
     </row>
     <row r="16">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1476.698304852065</v>
+        <v>1549.786567679562</v>
       </c>
       <c r="AB16" t="n">
-        <v>2020.483768029937</v>
+        <v>2120.486353657107</v>
       </c>
       <c r="AC16" t="n">
-        <v>1827.651632975939</v>
+        <v>1918.110112185361</v>
       </c>
       <c r="AD16" t="n">
-        <v>1476698.304852065</v>
+        <v>1549786.567679562</v>
       </c>
       <c r="AE16" t="n">
-        <v>2020483.768029938</v>
+        <v>2120486.353657107</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.429229736270343e-06</v>
+        <v>2.644449205067861e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.63229166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1827651.632975938</v>
+        <v>1918110.112185361</v>
       </c>
     </row>
   </sheetData>
@@ -6108,28 +6108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5686.656579449073</v>
+        <v>5816.057502417514</v>
       </c>
       <c r="AB2" t="n">
-        <v>7780.734409584901</v>
+        <v>7957.786461156149</v>
       </c>
       <c r="AC2" t="n">
-        <v>7038.152037863156</v>
+        <v>7198.30649012655</v>
       </c>
       <c r="AD2" t="n">
-        <v>5686656.579449073</v>
+        <v>5816057.502417514</v>
       </c>
       <c r="AE2" t="n">
-        <v>7780734.409584901</v>
+        <v>7957786.461156149</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81684858235125e-07</v>
+        <v>1.299396545855427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>7038152.037863156</v>
+        <v>7198306.49012655</v>
       </c>
     </row>
     <row r="3">
@@ -6214,28 +6214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2459.726712959087</v>
+        <v>2541.987446542088</v>
       </c>
       <c r="AB3" t="n">
-        <v>3365.506604154753</v>
+        <v>3478.059368930458</v>
       </c>
       <c r="AC3" t="n">
-        <v>3044.307377372282</v>
+        <v>3146.118264246587</v>
       </c>
       <c r="AD3" t="n">
-        <v>2459726.712959087</v>
+        <v>2541987.446542087</v>
       </c>
       <c r="AE3" t="n">
-        <v>3365506.604154753</v>
+        <v>3478059.368930458</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.101531498839534e-06</v>
+        <v>2.099689038786531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3044307.377372282</v>
+        <v>3146118.264246587</v>
       </c>
     </row>
     <row r="4">
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1959.092187649708</v>
+        <v>2041.352831724157</v>
       </c>
       <c r="AB4" t="n">
-        <v>2680.516360189792</v>
+        <v>2793.069002495942</v>
       </c>
       <c r="AC4" t="n">
-        <v>2424.691640901618</v>
+        <v>2526.502416994695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1959092.187649708</v>
+        <v>2041352.831724157</v>
       </c>
       <c r="AE4" t="n">
-        <v>2680516.360189792</v>
+        <v>2793069.002495942</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252597813449532e-06</v>
+        <v>2.387644748859872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>2424691.640901618</v>
+        <v>2526502.416994695</v>
       </c>
     </row>
     <row r="5">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1742.475233533294</v>
+        <v>1813.057506329598</v>
       </c>
       <c r="AB5" t="n">
-        <v>2384.131487102162</v>
+        <v>2480.705266612174</v>
       </c>
       <c r="AC5" t="n">
-        <v>2156.593324122689</v>
+        <v>2243.950237658416</v>
       </c>
       <c r="AD5" t="n">
-        <v>1742475.233533294</v>
+        <v>1813057.506329598</v>
       </c>
       <c r="AE5" t="n">
-        <v>2384131.487102162</v>
+        <v>2480705.266612174</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331224736438352e-06</v>
+        <v>2.537519798758185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.80833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2156593.324122689</v>
+        <v>2243950.237658416</v>
       </c>
     </row>
     <row r="6">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1619.005891689935</v>
+        <v>1689.417572285647</v>
       </c>
       <c r="AB6" t="n">
-        <v>2215.195286509153</v>
+        <v>2311.535654244317</v>
       </c>
       <c r="AC6" t="n">
-        <v>2003.780157410829</v>
+        <v>2090.925935663906</v>
       </c>
       <c r="AD6" t="n">
-        <v>1619005.891689935</v>
+        <v>1689417.572285647</v>
       </c>
       <c r="AE6" t="n">
-        <v>2215195.286509153</v>
+        <v>2311535.654244317</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379970410383437e-06</v>
+        <v>2.630436576334298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.39270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2003780.157410829</v>
+        <v>2090925.935663906</v>
       </c>
     </row>
     <row r="7">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1529.885457095135</v>
+        <v>1588.704107267272</v>
       </c>
       <c r="AB7" t="n">
-        <v>2093.256776180458</v>
+        <v>2173.735048241683</v>
       </c>
       <c r="AC7" t="n">
-        <v>1893.479287366132</v>
+        <v>1966.276826093798</v>
       </c>
       <c r="AD7" t="n">
-        <v>1529885.457095135</v>
+        <v>1588704.107267272</v>
       </c>
       <c r="AE7" t="n">
-        <v>2093256.776180458</v>
+        <v>2173735.048241683</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413322713609021e-06</v>
+        <v>2.694011213623217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.12291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1893479.287366132</v>
+        <v>1966276.826093798</v>
       </c>
     </row>
     <row r="8">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1441.827738957496</v>
+        <v>1512.324670899227</v>
       </c>
       <c r="AB8" t="n">
-        <v>1972.772321392194</v>
+        <v>2069.229333780009</v>
       </c>
       <c r="AC8" t="n">
-        <v>1784.493699841865</v>
+        <v>1871.744990345654</v>
       </c>
       <c r="AD8" t="n">
-        <v>1441827.738957496</v>
+        <v>1512324.670899227</v>
       </c>
       <c r="AE8" t="n">
-        <v>1972772.321392194</v>
+        <v>2069229.333780009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439280162273276e-06</v>
+        <v>2.743490116852603e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1784493.699841865</v>
+        <v>1871744.990345654</v>
       </c>
     </row>
     <row r="9">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1358.318493138441</v>
+        <v>1428.815425080173</v>
       </c>
       <c r="AB9" t="n">
-        <v>1858.511287094654</v>
+        <v>1954.968299482468</v>
       </c>
       <c r="AC9" t="n">
-        <v>1681.137578291314</v>
+        <v>1768.388868795102</v>
       </c>
       <c r="AD9" t="n">
-        <v>1358318.493138441</v>
+        <v>1428815.425080173</v>
       </c>
       <c r="AE9" t="n">
-        <v>1858511.287094654</v>
+        <v>1954968.299482468</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.466444934131218e-06</v>
+        <v>2.795270364418238e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.71979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1681137.578291314</v>
+        <v>1768388.868795102</v>
       </c>
     </row>
     <row r="10">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1335.219520477019</v>
+        <v>1405.716452418751</v>
       </c>
       <c r="AB10" t="n">
-        <v>1826.906253644543</v>
+        <v>1923.363266032358</v>
       </c>
       <c r="AC10" t="n">
-        <v>1652.548884875738</v>
+        <v>1739.800175379527</v>
       </c>
       <c r="AD10" t="n">
-        <v>1335219.520477019</v>
+        <v>1405716.452418751</v>
       </c>
       <c r="AE10" t="n">
-        <v>1826906.253644543</v>
+        <v>1923363.266032358</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.467350426526483e-06</v>
+        <v>2.796996372670427e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.71354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1652548.884875738</v>
+        <v>1739800.175379527</v>
       </c>
     </row>
     <row r="11">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1329.949597087807</v>
+        <v>1400.446529029539</v>
       </c>
       <c r="AB11" t="n">
-        <v>1819.695711970812</v>
+        <v>1916.152724358626</v>
       </c>
       <c r="AC11" t="n">
-        <v>1646.026507179289</v>
+        <v>1733.277797683078</v>
       </c>
       <c r="AD11" t="n">
-        <v>1329949.597087807</v>
+        <v>1400446.529029539</v>
       </c>
       <c r="AE11" t="n">
-        <v>1819695.711970812</v>
+        <v>1916152.724358626</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47067056530912e-06</v>
+        <v>2.803325069595115e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.68958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1646026.507179289</v>
+        <v>1733277.797683078</v>
       </c>
     </row>
     <row r="12">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1336.738735759787</v>
+        <v>1407.235667701519</v>
       </c>
       <c r="AB12" t="n">
-        <v>1828.984911017474</v>
+        <v>1925.441923405288</v>
       </c>
       <c r="AC12" t="n">
-        <v>1654.429158106411</v>
+        <v>1741.680448610199</v>
       </c>
       <c r="AD12" t="n">
-        <v>1336738.735759787</v>
+        <v>1407235.667701519</v>
       </c>
       <c r="AE12" t="n">
-        <v>1828984.911017474</v>
+        <v>1925441.923405288</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.470519649909909e-06</v>
+        <v>2.803037401553084e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.68958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1654429.158106411</v>
+        <v>1741680.448610199</v>
       </c>
     </row>
   </sheetData>
@@ -7465,28 +7465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1804.541966578777</v>
+        <v>1888.164165653733</v>
       </c>
       <c r="AB2" t="n">
-        <v>2469.053929446002</v>
+        <v>2583.469511371412</v>
       </c>
       <c r="AC2" t="n">
-        <v>2233.41088775863</v>
+        <v>2336.906807128356</v>
       </c>
       <c r="AD2" t="n">
-        <v>1804541.966578777</v>
+        <v>1888164.165653733</v>
       </c>
       <c r="AE2" t="n">
-        <v>2469053.929446002</v>
+        <v>2583469.511371412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194458366473544e-06</v>
+        <v>2.54388372732928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2233410.887758629</v>
+        <v>2336906.807128356</v>
       </c>
     </row>
     <row r="3">
@@ -7571,28 +7571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1156.696710052743</v>
+        <v>1219.477364999888</v>
       </c>
       <c r="AB3" t="n">
-        <v>1582.643468551504</v>
+        <v>1668.54273033721</v>
       </c>
       <c r="AC3" t="n">
-        <v>1431.598197167007</v>
+        <v>1509.299353968256</v>
       </c>
       <c r="AD3" t="n">
-        <v>1156696.710052743</v>
+        <v>1219477.364999888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1582643.468551504</v>
+        <v>1668542.73033721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49218886018921e-06</v>
+        <v>3.177971761999823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1431598.197167007</v>
+        <v>1509299.353968256</v>
       </c>
     </row>
     <row r="4">
@@ -7677,28 +7677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1013.138213310266</v>
+        <v>1065.455515274772</v>
       </c>
       <c r="AB4" t="n">
-        <v>1386.220399954557</v>
+        <v>1457.803240578861</v>
       </c>
       <c r="AC4" t="n">
-        <v>1253.921470555445</v>
+        <v>1318.672545337712</v>
       </c>
       <c r="AD4" t="n">
-        <v>1013138.213310266</v>
+        <v>1065455.515274772</v>
       </c>
       <c r="AE4" t="n">
-        <v>1386220.399954557</v>
+        <v>1457803.240578861</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.572178670435218e-06</v>
+        <v>3.348329124255767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.15729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1253921.470555444</v>
+        <v>1318672.545337712</v>
       </c>
     </row>
     <row r="5">
@@ -7783,28 +7783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1020.643013111017</v>
+        <v>1072.960315075523</v>
       </c>
       <c r="AB5" t="n">
-        <v>1396.488798130344</v>
+        <v>1468.071638754648</v>
       </c>
       <c r="AC5" t="n">
-        <v>1263.209867221122</v>
+        <v>1327.960942003389</v>
       </c>
       <c r="AD5" t="n">
-        <v>1020643.013111017</v>
+        <v>1072960.315075523</v>
       </c>
       <c r="AE5" t="n">
-        <v>1396488.798130344</v>
+        <v>1468071.638754648</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5720102708347e-06</v>
+        <v>3.347970477177333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.159375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1263209.867221122</v>
+        <v>1327960.942003389</v>
       </c>
     </row>
   </sheetData>
@@ -8080,28 +8080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2730.553453634451</v>
+        <v>2829.214277195683</v>
       </c>
       <c r="AB2" t="n">
-        <v>3736.063698779355</v>
+        <v>3871.055790184184</v>
       </c>
       <c r="AC2" t="n">
-        <v>3379.499022966048</v>
+        <v>3501.607658629785</v>
       </c>
       <c r="AD2" t="n">
-        <v>2730553.453634451</v>
+        <v>2829214.277195683</v>
       </c>
       <c r="AE2" t="n">
-        <v>3736063.698779355</v>
+        <v>3871055.790184184</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.890085795913568e-07</v>
+        <v>2.00802934815066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3379499.022966047</v>
+        <v>3501607.658629785</v>
       </c>
     </row>
     <row r="3">
@@ -8186,28 +8186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1579.266708739693</v>
+        <v>1655.983940208524</v>
       </c>
       <c r="AB3" t="n">
-        <v>2160.822383227611</v>
+        <v>2265.790283848651</v>
       </c>
       <c r="AC3" t="n">
-        <v>1954.59652770563</v>
+        <v>2049.546439214771</v>
       </c>
       <c r="AD3" t="n">
-        <v>1579266.708739693</v>
+        <v>1655983.940208524</v>
       </c>
       <c r="AE3" t="n">
-        <v>2160822.383227611</v>
+        <v>2265790.283848651</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.335540173450456e-06</v>
+        <v>2.7116082906286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1954596.52770563</v>
+        <v>2049546.439214771</v>
       </c>
     </row>
     <row r="4">
@@ -8292,28 +8292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1316.083009802892</v>
+        <v>1381.913786080094</v>
       </c>
       <c r="AB4" t="n">
-        <v>1800.722835496937</v>
+        <v>1890.795407848282</v>
       </c>
       <c r="AC4" t="n">
-        <v>1628.864375407481</v>
+        <v>1710.340547871263</v>
       </c>
       <c r="AD4" t="n">
-        <v>1316083.009802892</v>
+        <v>1381913.786080095</v>
       </c>
       <c r="AE4" t="n">
-        <v>1800722.835496936</v>
+        <v>1890795.407848282</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456044883913778e-06</v>
+        <v>2.956274515163002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.525</v>
       </c>
       <c r="AH4" t="n">
-        <v>1628864.375407481</v>
+        <v>1710340.547871263</v>
       </c>
     </row>
     <row r="5">
@@ -8398,28 +8398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1175.969116618648</v>
+        <v>1230.828186358201</v>
       </c>
       <c r="AB5" t="n">
-        <v>1609.012825453546</v>
+        <v>1684.073424882549</v>
       </c>
       <c r="AC5" t="n">
-        <v>1455.450899655943</v>
+        <v>1523.347820823655</v>
       </c>
       <c r="AD5" t="n">
-        <v>1175969.116618648</v>
+        <v>1230828.186358201</v>
       </c>
       <c r="AE5" t="n">
-        <v>1609012.825453546</v>
+        <v>1684073.424882549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.520002597889632e-06</v>
+        <v>3.086130786740753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.040625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1455450.899655943</v>
+        <v>1523347.820823655</v>
       </c>
     </row>
     <row r="6">
@@ -8504,28 +8504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1118.498635651017</v>
+        <v>1184.244071073647</v>
       </c>
       <c r="AB6" t="n">
-        <v>1530.379177974953</v>
+        <v>1620.334983204101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1384.32193712969</v>
+        <v>1465.692486561533</v>
       </c>
       <c r="AD6" t="n">
-        <v>1118498.635651017</v>
+        <v>1184244.071073647</v>
       </c>
       <c r="AE6" t="n">
-        <v>1530379.177974953</v>
+        <v>1620334.983204101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538207186502407e-06</v>
+        <v>3.123092395527367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.909375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1384321.93712969</v>
+        <v>1465692.486561533</v>
       </c>
     </row>
     <row r="7">
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1122.880156892649</v>
+        <v>1188.625592315279</v>
       </c>
       <c r="AB7" t="n">
-        <v>1536.37416863683</v>
+        <v>1626.329973865978</v>
       </c>
       <c r="AC7" t="n">
-        <v>1389.744774296819</v>
+        <v>1471.115323728662</v>
       </c>
       <c r="AD7" t="n">
-        <v>1122880.156892649</v>
+        <v>1188625.592315279</v>
       </c>
       <c r="AE7" t="n">
-        <v>1536374.16863683</v>
+        <v>1626329.973865978</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>3.126363334358041e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.89791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1389744.774296819</v>
+        <v>1471115.323728662</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1271.902731199729</v>
+        <v>1342.057557078092</v>
       </c>
       <c r="AB2" t="n">
-        <v>1740.273429215757</v>
+        <v>1836.262356995014</v>
       </c>
       <c r="AC2" t="n">
-        <v>1574.184175620503</v>
+        <v>1661.012054853814</v>
       </c>
       <c r="AD2" t="n">
-        <v>1271902.731199729</v>
+        <v>1342057.557078092</v>
       </c>
       <c r="AE2" t="n">
-        <v>1740273.429215757</v>
+        <v>1836262.356995014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.375216327384373e-06</v>
+        <v>3.062338148274546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1574184.175620503</v>
+        <v>1661012.054853814</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>928.5032598004494</v>
+        <v>988.7821895824104</v>
       </c>
       <c r="AB3" t="n">
-        <v>1270.419122731798</v>
+        <v>1352.895413778173</v>
       </c>
       <c r="AC3" t="n">
-        <v>1149.172104702711</v>
+        <v>1223.776974287822</v>
       </c>
       <c r="AD3" t="n">
-        <v>928503.2598004495</v>
+        <v>988782.1895824104</v>
       </c>
       <c r="AE3" t="n">
-        <v>1270419.122731798</v>
+        <v>1352895.413778173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582294558545902e-06</v>
+        <v>3.523460921714334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.51458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1149172.104702711</v>
+        <v>1223776.974287822</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>935.8241357317715</v>
+        <v>996.1030655137326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1280.435868155284</v>
+        <v>1362.91215920166</v>
       </c>
       <c r="AC4" t="n">
-        <v>1158.232866001571</v>
+        <v>1232.837735586682</v>
       </c>
       <c r="AD4" t="n">
-        <v>935824.1357317716</v>
+        <v>996103.0655137326</v>
       </c>
       <c r="AE4" t="n">
-        <v>1280435.868155284</v>
+        <v>1362912.15920166</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583518838628783e-06</v>
+        <v>3.526187154327577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1158232.866001571</v>
+        <v>1232837.735586682</v>
       </c>
     </row>
   </sheetData>
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6431.841054326733</v>
+        <v>6574.282566911814</v>
       </c>
       <c r="AB2" t="n">
-        <v>8800.328683331389</v>
+        <v>8995.223444926334</v>
       </c>
       <c r="AC2" t="n">
-        <v>7960.437665132789</v>
+        <v>8136.731944217623</v>
       </c>
       <c r="AD2" t="n">
-        <v>6431841.054326733</v>
+        <v>6574282.566911814</v>
       </c>
       <c r="AE2" t="n">
-        <v>8800328.683331389</v>
+        <v>8995223.444926335</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.381713978122528e-07</v>
+        <v>1.206631293337653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7960437.665132789</v>
+        <v>8136731.944217623</v>
       </c>
     </row>
     <row r="3">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2620.77663518697</v>
+        <v>2715.709136953133</v>
       </c>
       <c r="AB3" t="n">
-        <v>3585.862212768076</v>
+        <v>3715.753049810942</v>
       </c>
       <c r="AC3" t="n">
-        <v>3243.632555970579</v>
+        <v>3361.126793829005</v>
       </c>
       <c r="AD3" t="n">
-        <v>2620776.63518697</v>
+        <v>2715709.136953133</v>
       </c>
       <c r="AE3" t="n">
-        <v>3585862.212768076</v>
+        <v>3715753.049810942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067706962498634e-06</v>
+        <v>2.018781533428054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.590625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3243632.555970579</v>
+        <v>3361126.793829005</v>
       </c>
     </row>
     <row r="4">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2068.430578646313</v>
+        <v>2151.485850084884</v>
       </c>
       <c r="AB4" t="n">
-        <v>2830.117970420721</v>
+        <v>2943.757856942948</v>
       </c>
       <c r="AC4" t="n">
-        <v>2560.015483419286</v>
+        <v>2662.809738666414</v>
       </c>
       <c r="AD4" t="n">
-        <v>2068430.578646313</v>
+        <v>2151485.850084884</v>
       </c>
       <c r="AE4" t="n">
-        <v>2830117.970420721</v>
+        <v>2943757.856942948</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223099529249731e-06</v>
+        <v>2.312592153015076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2560015.483419286</v>
+        <v>2662809.738666414</v>
       </c>
     </row>
     <row r="5">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1829.970902379678</v>
+        <v>1912.940832963678</v>
       </c>
       <c r="AB5" t="n">
-        <v>2503.846921254266</v>
+        <v>2617.370040654296</v>
       </c>
       <c r="AC5" t="n">
-        <v>2264.883285260984</v>
+        <v>2367.571917476173</v>
       </c>
       <c r="AD5" t="n">
-        <v>1829970.902379678</v>
+        <v>1912940.832963678</v>
       </c>
       <c r="AE5" t="n">
-        <v>2503846.921254267</v>
+        <v>2617370.040654296</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.305656504078033e-06</v>
+        <v>2.468687881611838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.93125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2264883.285260984</v>
+        <v>2367571.917476173</v>
       </c>
     </row>
     <row r="6">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1696.415574887724</v>
+        <v>1767.508364652683</v>
       </c>
       <c r="AB6" t="n">
-        <v>2321.110630134566</v>
+        <v>2418.382921483511</v>
       </c>
       <c r="AC6" t="n">
-        <v>2099.587089293752</v>
+        <v>2187.575849678872</v>
       </c>
       <c r="AD6" t="n">
-        <v>1696415.574887724</v>
+        <v>1767508.364652683</v>
       </c>
       <c r="AE6" t="n">
-        <v>2321110.630134566</v>
+        <v>2418382.921483511</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.357553732819737e-06</v>
+        <v>2.566813276218861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.47604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2099587.089293752</v>
+        <v>2187575.849678872</v>
       </c>
     </row>
     <row r="7">
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1609.342305746452</v>
+        <v>1668.728546892962</v>
       </c>
       <c r="AB7" t="n">
-        <v>2201.973141893955</v>
+        <v>2283.228016966663</v>
       </c>
       <c r="AC7" t="n">
-        <v>1991.81991572031</v>
+        <v>2065.319939558013</v>
       </c>
       <c r="AD7" t="n">
-        <v>1609342.305746451</v>
+        <v>1668728.546892962</v>
       </c>
       <c r="AE7" t="n">
-        <v>2201973.141893955</v>
+        <v>2283228.016966663</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389559516539405e-06</v>
+        <v>2.627328649261808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.21145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1991819.91572031</v>
+        <v>2065319.939558013</v>
       </c>
     </row>
     <row r="8">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1533.456057686201</v>
+        <v>1592.842298832711</v>
       </c>
       <c r="AB8" t="n">
-        <v>2098.142229432935</v>
+        <v>2179.397104505644</v>
       </c>
       <c r="AC8" t="n">
-        <v>1897.898479816969</v>
+        <v>1971.398503654672</v>
       </c>
       <c r="AD8" t="n">
-        <v>1533456.057686201</v>
+        <v>1592842.298832711</v>
       </c>
       <c r="AE8" t="n">
-        <v>2098142.229432935</v>
+        <v>2179397.104505644</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415283791304745e-06</v>
+        <v>2.675967173389785e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.00729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1897898.479816969</v>
+        <v>1971398.503654672</v>
       </c>
     </row>
     <row r="9">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1453.806422558301</v>
+        <v>1524.98446366928</v>
       </c>
       <c r="AB9" t="n">
-        <v>1989.162084757039</v>
+        <v>2086.551020758634</v>
       </c>
       <c r="AC9" t="n">
-        <v>1799.319247194347</v>
+        <v>1887.41351983018</v>
       </c>
       <c r="AD9" t="n">
-        <v>1453806.422558301</v>
+        <v>1524984.46366928</v>
       </c>
       <c r="AE9" t="n">
-        <v>1989162.084757039</v>
+        <v>2086551.020758634</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.43667083369686e-06</v>
+        <v>2.716405016124092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.84375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1799319.247194347</v>
+        <v>1887413.51983018</v>
       </c>
     </row>
     <row r="10">
@@ -10264,28 +10264,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1407.152539018491</v>
+        <v>1478.33058012947</v>
       </c>
       <c r="AB10" t="n">
-        <v>1925.328183073791</v>
+        <v>2022.717119075386</v>
       </c>
       <c r="AC10" t="n">
-        <v>1741.577563496305</v>
+        <v>1829.671836132138</v>
       </c>
       <c r="AD10" t="n">
-        <v>1407152.539018491</v>
+        <v>1478330.58012947</v>
       </c>
       <c r="AE10" t="n">
-        <v>1925328.183073791</v>
+        <v>2022717.119075386</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.735068635847617e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.76979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1741577.563496305</v>
+        <v>1829671.836132138</v>
       </c>
     </row>
     <row r="11">
@@ -10370,28 +10370,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1367.262650232378</v>
+        <v>1438.440691343357</v>
       </c>
       <c r="AB11" t="n">
-        <v>1870.74907741894</v>
+        <v>1968.138013420535</v>
       </c>
       <c r="AC11" t="n">
-        <v>1692.207411082896</v>
+        <v>1780.301683718729</v>
       </c>
       <c r="AD11" t="n">
-        <v>1367262.650232378</v>
+        <v>1438440.691343357</v>
       </c>
       <c r="AE11" t="n">
-        <v>1870749.07741894</v>
+        <v>1968138.013420535</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.457459637140943e-06</v>
+        <v>2.755711730390305e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.68854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1692207.411082896</v>
+        <v>1780301.683718729</v>
       </c>
     </row>
     <row r="12">
@@ -10476,28 +10476,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1367.619752888843</v>
+        <v>1438.797793999822</v>
       </c>
       <c r="AB12" t="n">
-        <v>1871.237681027773</v>
+        <v>1968.626617029368</v>
       </c>
       <c r="AC12" t="n">
-        <v>1692.649383049062</v>
+        <v>1780.743655684895</v>
       </c>
       <c r="AD12" t="n">
-        <v>1367619.752888843</v>
+        <v>1438797.793999822</v>
       </c>
       <c r="AE12" t="n">
-        <v>1871237.681027773</v>
+        <v>1968626.617029368</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458506555299997e-06</v>
+        <v>2.757691205209467e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.68229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1692649.383049062</v>
+        <v>1780743.655684894</v>
       </c>
     </row>
   </sheetData>
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1003.685760966599</v>
+        <v>1062.568635729963</v>
       </c>
       <c r="AB2" t="n">
-        <v>1373.287137645186</v>
+        <v>1453.853284625517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1242.222540648931</v>
+        <v>1315.099567636757</v>
       </c>
       <c r="AD2" t="n">
-        <v>1003685.760966599</v>
+        <v>1062568.635729963</v>
       </c>
       <c r="AE2" t="n">
-        <v>1373287.137645186</v>
+        <v>1453853.284625517</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491495056782265e-06</v>
+        <v>3.419351972260313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.50104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1242222.540648931</v>
+        <v>1315099.567636757</v>
       </c>
     </row>
     <row r="3">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.8512062159282</v>
+        <v>942.6487401247207</v>
       </c>
       <c r="AB3" t="n">
-        <v>1209.324213107881</v>
+        <v>1289.773592966014</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.908007506057</v>
+        <v>1166.679411461944</v>
       </c>
       <c r="AD3" t="n">
-        <v>883851.2062159282</v>
+        <v>942648.7401247207</v>
       </c>
       <c r="AE3" t="n">
-        <v>1209324.213107881</v>
+        <v>1289773.592966014</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.577766581727549e-06</v>
+        <v>3.617135201665026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093908.007506057</v>
+        <v>1166679.411461944</v>
       </c>
     </row>
   </sheetData>
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3958.995902592851</v>
+        <v>4072.948809259421</v>
       </c>
       <c r="AB2" t="n">
-        <v>5416.872852500287</v>
+        <v>5572.788246648934</v>
       </c>
       <c r="AC2" t="n">
-        <v>4899.894110086252</v>
+        <v>5040.929157845977</v>
       </c>
       <c r="AD2" t="n">
-        <v>3958995.902592851</v>
+        <v>4072948.809259421</v>
       </c>
       <c r="AE2" t="n">
-        <v>5416872.852500287</v>
+        <v>5572788.246648934</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.228510991115336e-07</v>
+        <v>1.612776782510575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4899894.110086252</v>
+        <v>5040929.157845977</v>
       </c>
     </row>
     <row r="3">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2003.111665472819</v>
+        <v>2082.708107938826</v>
       </c>
       <c r="AB3" t="n">
-        <v>2740.745751749676</v>
+        <v>2849.653115878875</v>
       </c>
       <c r="AC3" t="n">
-        <v>2479.172823863508</v>
+        <v>2577.686222012662</v>
       </c>
       <c r="AD3" t="n">
-        <v>2003111.665472819</v>
+        <v>2082708.107938826</v>
       </c>
       <c r="AE3" t="n">
-        <v>2740745.751749676</v>
+        <v>2849653.115878875</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210020267060838e-06</v>
+        <v>2.371623001038794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2479172.823863508</v>
+        <v>2577686.222012662</v>
       </c>
     </row>
     <row r="4">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1644.285945203</v>
+        <v>1712.572437856921</v>
       </c>
       <c r="AB4" t="n">
-        <v>2249.784571002976</v>
+        <v>2343.217162839509</v>
       </c>
       <c r="AC4" t="n">
-        <v>2035.068289138928</v>
+        <v>2119.583805544049</v>
       </c>
       <c r="AD4" t="n">
-        <v>1644285.945203</v>
+        <v>1712572.437856921</v>
       </c>
       <c r="AE4" t="n">
-        <v>2249784.571002976</v>
+        <v>2343217.162839509</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346540158410031e-06</v>
+        <v>2.639200101387298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.028125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2035068.289138928</v>
+        <v>2119583.805544049</v>
       </c>
     </row>
     <row r="5">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1469.149160828548</v>
+        <v>1537.350312627898</v>
       </c>
       <c r="AB5" t="n">
-        <v>2010.154696132232</v>
+        <v>2103.470520846568</v>
       </c>
       <c r="AC5" t="n">
-        <v>1818.308353203207</v>
+        <v>1902.718246576389</v>
       </c>
       <c r="AD5" t="n">
-        <v>1469149.160828548</v>
+        <v>1537350.312627898</v>
       </c>
       <c r="AE5" t="n">
-        <v>2010154.696132232</v>
+        <v>2103470.520846568</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417443427721228e-06</v>
+        <v>2.778169529358731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1818308.353203207</v>
+        <v>1902718.246576389</v>
       </c>
     </row>
     <row r="6">
@@ -11600,28 +11600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1359.758038300333</v>
+        <v>1416.734581142169</v>
       </c>
       <c r="AB6" t="n">
-        <v>1860.480936293404</v>
+        <v>1938.438755837271</v>
       </c>
       <c r="AC6" t="n">
-        <v>1682.919246934955</v>
+        <v>1753.436881596042</v>
       </c>
       <c r="AD6" t="n">
-        <v>1359758.038300333</v>
+        <v>1416734.581142169</v>
       </c>
       <c r="AE6" t="n">
-        <v>1860480.936293404</v>
+        <v>1938438.755837271</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.461757971040727e-06</v>
+        <v>2.865025421840877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.08020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1682919.246934955</v>
+        <v>1753436.881596042</v>
       </c>
     </row>
     <row r="7">
@@ -11706,28 +11706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1259.05691272432</v>
+        <v>1327.34331586969</v>
       </c>
       <c r="AB7" t="n">
-        <v>1722.697213660188</v>
+        <v>1816.129683027172</v>
       </c>
       <c r="AC7" t="n">
-        <v>1558.285409409183</v>
+        <v>1642.800815033077</v>
       </c>
       <c r="AD7" t="n">
-        <v>1259056.91272432</v>
+        <v>1327343.31586969</v>
       </c>
       <c r="AE7" t="n">
-        <v>1722697.213660188</v>
+        <v>1816129.683027172</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493166875428582e-06</v>
+        <v>2.926586440372082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.846875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1558285.409409183</v>
+        <v>1642800.815033077</v>
       </c>
     </row>
     <row r="8">
@@ -11812,28 +11812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1218.983899517889</v>
+        <v>1287.270302663259</v>
       </c>
       <c r="AB8" t="n">
-        <v>1667.867549094577</v>
+        <v>1761.300018461562</v>
       </c>
       <c r="AC8" t="n">
-        <v>1508.688611075797</v>
+        <v>1593.204016699692</v>
       </c>
       <c r="AD8" t="n">
-        <v>1218983.899517889</v>
+        <v>1287270.302663259</v>
       </c>
       <c r="AE8" t="n">
-        <v>1667867.549094577</v>
+        <v>1761300.018461562</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.951881314323022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.75416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1508688.611075797</v>
+        <v>1593204.016699692</v>
       </c>
     </row>
     <row r="9">
@@ -11918,28 +11918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1224.521275161177</v>
+        <v>1292.807678306547</v>
       </c>
       <c r="AB9" t="n">
-        <v>1675.444030741497</v>
+        <v>1768.876500108481</v>
       </c>
       <c r="AC9" t="n">
-        <v>1515.542003947993</v>
+        <v>1600.057409571888</v>
       </c>
       <c r="AD9" t="n">
-        <v>1224521.275161177</v>
+        <v>1292807.678306547</v>
       </c>
       <c r="AE9" t="n">
-        <v>1675444.030741496</v>
+        <v>1768876.500108481</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.951881314323022e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1515542.003947993</v>
+        <v>1600057.409571887</v>
       </c>
     </row>
   </sheetData>
@@ -12215,28 +12215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5032.409796695524</v>
+        <v>5171.989642178436</v>
       </c>
       <c r="AB2" t="n">
-        <v>6885.56509809046</v>
+        <v>7076.544400508376</v>
       </c>
       <c r="AC2" t="n">
-        <v>6228.416429079758</v>
+        <v>6401.168934916034</v>
       </c>
       <c r="AD2" t="n">
-        <v>5032409.796695524</v>
+        <v>5171989.642178436</v>
       </c>
       <c r="AE2" t="n">
-        <v>6885565.098090461</v>
+        <v>7076544.400508377</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.263993410363362e-07</v>
+        <v>1.39665025121971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6228416.429079758</v>
+        <v>6401168.934916034</v>
       </c>
     </row>
     <row r="3">
@@ -12321,28 +12321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2296.793679021704</v>
+        <v>2389.790015440597</v>
       </c>
       <c r="AB3" t="n">
-        <v>3142.574439023464</v>
+        <v>3269.81612922061</v>
       </c>
       <c r="AC3" t="n">
-        <v>2842.651545193874</v>
+        <v>2957.749467063432</v>
       </c>
       <c r="AD3" t="n">
-        <v>2296793.679021704</v>
+        <v>2389790.015440597</v>
       </c>
       <c r="AE3" t="n">
-        <v>3142574.439023464</v>
+        <v>3269816.12922061</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135608365789608e-06</v>
+        <v>2.183437703983163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2842651.545193874</v>
+        <v>2957749.467063432</v>
       </c>
     </row>
     <row r="4">
@@ -12427,28 +12427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1852.371579265259</v>
+        <v>1922.161591515265</v>
       </c>
       <c r="AB4" t="n">
-        <v>2534.496515617235</v>
+        <v>2629.986289295735</v>
       </c>
       <c r="AC4" t="n">
-        <v>2292.607725354926</v>
+        <v>2378.98408905429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1852371.579265259</v>
+        <v>1922161.591515265</v>
       </c>
       <c r="AE4" t="n">
-        <v>2534496.515617235</v>
+        <v>2629986.289295735</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282777359799906e-06</v>
+        <v>2.466399982229438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.37083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2292607.725354926</v>
+        <v>2378984.08905429</v>
       </c>
     </row>
     <row r="5">
@@ -12533,28 +12533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1650.483040148476</v>
+        <v>1720.358303744503</v>
       </c>
       <c r="AB5" t="n">
-        <v>2258.26370970391</v>
+        <v>2353.87012803506</v>
       </c>
       <c r="AC5" t="n">
-        <v>2042.738190742791</v>
+        <v>2129.220066692867</v>
       </c>
       <c r="AD5" t="n">
-        <v>1650483.040148476</v>
+        <v>1720358.303744504</v>
       </c>
       <c r="AE5" t="n">
-        <v>2258263.70970391</v>
+        <v>2353870.12803506</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.359408833906717e-06</v>
+        <v>2.613739553614404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.67395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2042738.190742791</v>
+        <v>2129220.066692867</v>
       </c>
     </row>
     <row r="6">
@@ -12639,28 +12639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1531.836489148593</v>
+        <v>1601.541160544028</v>
       </c>
       <c r="AB6" t="n">
-        <v>2095.926264309458</v>
+        <v>2191.299270865762</v>
       </c>
       <c r="AC6" t="n">
-        <v>1895.894003294751</v>
+        <v>1982.164743962175</v>
       </c>
       <c r="AD6" t="n">
-        <v>1531836.489148593</v>
+        <v>1601541.160544028</v>
       </c>
       <c r="AE6" t="n">
-        <v>2095926.264309459</v>
+        <v>2191299.270865762</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406636978982486e-06</v>
+        <v>2.704545253672732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1895894.003294751</v>
+        <v>1982164.743962175</v>
       </c>
     </row>
     <row r="7">
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1446.025156513744</v>
+        <v>1504.254632352318</v>
       </c>
       <c r="AB7" t="n">
-        <v>1978.515413269647</v>
+        <v>2058.187551015154</v>
       </c>
       <c r="AC7" t="n">
-        <v>1789.688679091014</v>
+        <v>1861.757019830637</v>
       </c>
       <c r="AD7" t="n">
-        <v>1446025.156513744</v>
+        <v>1504254.632352318</v>
       </c>
       <c r="AE7" t="n">
-        <v>1978515.413269647</v>
+        <v>2058187.551015154</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438325540839776e-06</v>
+        <v>2.76547294919574e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1789688.679091014</v>
+        <v>1861757.019830637</v>
       </c>
     </row>
     <row r="8">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1356.300050847962</v>
+        <v>1426.089973589418</v>
       </c>
       <c r="AB8" t="n">
-        <v>1855.749565305431</v>
+        <v>1951.239216514384</v>
       </c>
       <c r="AC8" t="n">
-        <v>1678.639431353553</v>
+        <v>1765.01568427169</v>
       </c>
       <c r="AD8" t="n">
-        <v>1356300.050847962</v>
+        <v>1426089.973589418</v>
       </c>
       <c r="AE8" t="n">
-        <v>1855749.565305431</v>
+        <v>1951239.216514384</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.815269623421274e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1678639.431353553</v>
+        <v>1765015.68427169</v>
       </c>
     </row>
     <row r="9">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1311.182260441855</v>
+        <v>1380.972183183311</v>
       </c>
       <c r="AB9" t="n">
-        <v>1794.017414015362</v>
+        <v>1889.507065224314</v>
       </c>
       <c r="AC9" t="n">
-        <v>1622.79890994099</v>
+        <v>1709.175162859127</v>
       </c>
       <c r="AD9" t="n">
-        <v>1311182.260441855</v>
+        <v>1380972.183183311</v>
       </c>
       <c r="AE9" t="n">
-        <v>1794017.414015362</v>
+        <v>1889507.065224314</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.473518126363977e-06</v>
+        <v>2.833137841819849e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.76979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1622798.90994099</v>
+        <v>1709175.162859127</v>
       </c>
     </row>
     <row r="10">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1296.062406357596</v>
+        <v>1365.852329099052</v>
       </c>
       <c r="AB10" t="n">
-        <v>1773.329762616394</v>
+        <v>1868.819413825347</v>
       </c>
       <c r="AC10" t="n">
-        <v>1604.085658956239</v>
+        <v>1690.461911874376</v>
       </c>
       <c r="AD10" t="n">
-        <v>1296062.406357596</v>
+        <v>1365852.329099052</v>
       </c>
       <c r="AE10" t="n">
-        <v>1773329.762616394</v>
+        <v>1868819.413825347</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.480373824842718e-06</v>
+        <v>2.846319314408961e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.71979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1604085.658956239</v>
+        <v>1690461.911874376</v>
       </c>
     </row>
     <row r="11">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1302.62445012469</v>
+        <v>1372.414372866146</v>
       </c>
       <c r="AB11" t="n">
-        <v>1782.308240395472</v>
+        <v>1877.797891604424</v>
       </c>
       <c r="AC11" t="n">
-        <v>1612.207243417454</v>
+        <v>1698.583496335591</v>
       </c>
       <c r="AD11" t="n">
-        <v>1302624.45012469</v>
+        <v>1372414.372866146</v>
       </c>
       <c r="AE11" t="n">
-        <v>1782308.240395472</v>
+        <v>1877797.891604424</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.480526173697801e-06</v>
+        <v>2.846612236022052e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.71875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1612207.243417454</v>
+        <v>1698583.496335591</v>
       </c>
     </row>
   </sheetData>
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8296.346754367047</v>
+        <v>8465.646730518221</v>
       </c>
       <c r="AB2" t="n">
-        <v>11351.42763831283</v>
+        <v>11583.07133467069</v>
       </c>
       <c r="AC2" t="n">
-        <v>10268.06331634057</v>
+        <v>10477.599263432</v>
       </c>
       <c r="AD2" t="n">
-        <v>8296346.754367047</v>
+        <v>8465646.730518222</v>
       </c>
       <c r="AE2" t="n">
-        <v>11351427.63831283</v>
+        <v>11583071.33467069</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.565866453443024e-07</v>
+        <v>1.036878705169609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.51770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10268063.31634057</v>
+        <v>10477599.263432</v>
       </c>
     </row>
     <row r="3">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2968.807287505269</v>
+        <v>3065.379538819633</v>
       </c>
       <c r="AB3" t="n">
-        <v>4062.053105298747</v>
+        <v>4194.187520014107</v>
       </c>
       <c r="AC3" t="n">
-        <v>3674.376458056221</v>
+        <v>3793.900149682958</v>
       </c>
       <c r="AD3" t="n">
-        <v>2968807.287505269</v>
+        <v>3065379.538819633</v>
       </c>
       <c r="AE3" t="n">
-        <v>4062053.105298747</v>
+        <v>4194187.520014107</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005091075542485e-06</v>
+        <v>1.872408441171539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.240625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3674376.458056221</v>
+        <v>3793900.149682958</v>
       </c>
     </row>
     <row r="4">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2300.865500204987</v>
+        <v>2373.422722349756</v>
       </c>
       <c r="AB4" t="n">
-        <v>3148.145684402507</v>
+        <v>3247.42167673971</v>
       </c>
       <c r="AC4" t="n">
-        <v>2847.691078733231</v>
+        <v>2937.492309696499</v>
       </c>
       <c r="AD4" t="n">
-        <v>2300865.500204987</v>
+        <v>2373422.722349755</v>
       </c>
       <c r="AE4" t="n">
-        <v>3148145.684402507</v>
+        <v>3247421.67673971</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168464328640905e-06</v>
+        <v>2.176760420416832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2847691.078733231</v>
+        <v>2937492.309696498</v>
       </c>
     </row>
     <row r="5">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2026.545274379508</v>
+        <v>2099.017155669705</v>
       </c>
       <c r="AB5" t="n">
-        <v>2772.808649273669</v>
+        <v>2871.96787448867</v>
       </c>
       <c r="AC5" t="n">
-        <v>2508.175683448371</v>
+        <v>2597.871291379699</v>
       </c>
       <c r="AD5" t="n">
-        <v>2026545.274379508</v>
+        <v>2099017.155669705</v>
       </c>
       <c r="AE5" t="n">
-        <v>2772808.649273669</v>
+        <v>2871967.87448867</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255518303289208e-06</v>
+        <v>2.338935372453928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>2508175.683448371</v>
+        <v>2597871.291379699</v>
       </c>
     </row>
     <row r="6">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1867.156309399121</v>
+        <v>1939.713442035339</v>
       </c>
       <c r="AB6" t="n">
-        <v>2554.725635642645</v>
+        <v>2654.001505510295</v>
       </c>
       <c r="AC6" t="n">
-        <v>2310.90620655686</v>
+        <v>2400.707326738899</v>
       </c>
       <c r="AD6" t="n">
-        <v>1867156.309399121</v>
+        <v>1939713.442035339</v>
       </c>
       <c r="AE6" t="n">
-        <v>2554725.635642644</v>
+        <v>2654001.505510295</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308750632381583e-06</v>
+        <v>2.438103164071206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.70416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2310906.20655686</v>
+        <v>2400707.326738899</v>
       </c>
     </row>
     <row r="7">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1764.41725343795</v>
+        <v>1836.803793873575</v>
       </c>
       <c r="AB7" t="n">
-        <v>2414.153526749312</v>
+        <v>2513.195984842114</v>
       </c>
       <c r="AC7" t="n">
-        <v>2183.750102442112</v>
+        <v>2273.3400873415</v>
       </c>
       <c r="AD7" t="n">
-        <v>1764417.253437951</v>
+        <v>1836803.793873575</v>
       </c>
       <c r="AE7" t="n">
-        <v>2414153.526749312</v>
+        <v>2513195.984842114</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346101493125956e-06</v>
+        <v>2.507684984708744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.37916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2183750.102442112</v>
+        <v>2273340.0873415</v>
       </c>
     </row>
     <row r="8">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1688.235131769577</v>
+        <v>1748.699498474976</v>
       </c>
       <c r="AB8" t="n">
-        <v>2309.917786964636</v>
+        <v>2392.647800990559</v>
       </c>
       <c r="AC8" t="n">
-        <v>2089.462475366707</v>
+        <v>2164.296852966299</v>
       </c>
       <c r="AD8" t="n">
-        <v>1688235.131769577</v>
+        <v>1748699.498474976</v>
       </c>
       <c r="AE8" t="n">
-        <v>2309917.786964636</v>
+        <v>2392647.800990559</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372276505773588e-06</v>
+        <v>2.556447047990168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.1625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2089462.475366707</v>
+        <v>2164296.852966299</v>
       </c>
     </row>
     <row r="9">
@@ -14208,28 +14208,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1613.164110166761</v>
+        <v>1685.635901948407</v>
       </c>
       <c r="AB9" t="n">
-        <v>2207.202303307934</v>
+        <v>2306.361406053386</v>
       </c>
       <c r="AC9" t="n">
-        <v>1996.550013308113</v>
+        <v>2086.245510458214</v>
       </c>
       <c r="AD9" t="n">
-        <v>1613164.110166762</v>
+        <v>1685635.901948407</v>
       </c>
       <c r="AE9" t="n">
-        <v>2207202.303307934</v>
+        <v>2306361.406053386</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.393451796904256e-06</v>
+        <v>2.595895009296489e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.99270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1996550.013308113</v>
+        <v>2086245.510458214</v>
       </c>
     </row>
     <row r="10">
@@ -14314,28 +14314,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1546.539151523018</v>
+        <v>1619.010943304663</v>
       </c>
       <c r="AB10" t="n">
-        <v>2116.043095605833</v>
+        <v>2215.202198351284</v>
       </c>
       <c r="AC10" t="n">
-        <v>1914.090912446349</v>
+        <v>2003.786409596449</v>
       </c>
       <c r="AD10" t="n">
-        <v>1546539.151523018</v>
+        <v>1619010.943304663</v>
       </c>
       <c r="AE10" t="n">
-        <v>2116043.095605833</v>
+        <v>2215202.198351284</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.414774138667776e-06</v>
+        <v>2.635616914778548e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.82708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1914090.912446348</v>
+        <v>2003786.409596449</v>
       </c>
     </row>
     <row r="11">
@@ -14420,28 +14420,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1514.313082735743</v>
+        <v>1586.784874517388</v>
       </c>
       <c r="AB11" t="n">
-        <v>2071.949966577267</v>
+        <v>2171.109069322719</v>
       </c>
       <c r="AC11" t="n">
-        <v>1874.205969767175</v>
+        <v>1963.901466917275</v>
       </c>
       <c r="AD11" t="n">
-        <v>1514313.082735743</v>
+        <v>1586784.874517388</v>
       </c>
       <c r="AE11" t="n">
-        <v>2071949.966577268</v>
+        <v>2171109.069322719</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41977386018474e-06</v>
+        <v>2.644931016753652e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.78854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1874205.969767175</v>
+        <v>1963901.466917275</v>
       </c>
     </row>
     <row r="12">
@@ -14526,28 +14526,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1461.994406374949</v>
+        <v>1534.466198156595</v>
       </c>
       <c r="AB12" t="n">
-        <v>2000.36524544333</v>
+        <v>2099.524348188781</v>
       </c>
       <c r="AC12" t="n">
-        <v>1809.453193948473</v>
+        <v>1899.148691098573</v>
       </c>
       <c r="AD12" t="n">
-        <v>1461994.406374949</v>
+        <v>1534466.198156595</v>
       </c>
       <c r="AE12" t="n">
-        <v>2000365.245443329</v>
+        <v>2099524.348188781</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.430949708281481e-06</v>
+        <v>2.665750774109765e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.70416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1809453.193948473</v>
+        <v>1899148.691098573</v>
       </c>
     </row>
     <row r="13">
@@ -14632,28 +14632,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1434.712338023197</v>
+        <v>1507.184129804842</v>
       </c>
       <c r="AB13" t="n">
-        <v>1963.036715924552</v>
+        <v>2062.195818670004</v>
       </c>
       <c r="AC13" t="n">
-        <v>1775.687246896047</v>
+        <v>1865.382744046147</v>
       </c>
       <c r="AD13" t="n">
-        <v>1434712.338023197</v>
+        <v>1507184.129804842</v>
       </c>
       <c r="AE13" t="n">
-        <v>1963036.715924552</v>
+        <v>2062195.818670004</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.438155189291223e-06</v>
+        <v>2.679174038720944e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1775687.246896047</v>
+        <v>1865382.744046147</v>
       </c>
     </row>
     <row r="14">
@@ -14738,28 +14738,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1438.22722409855</v>
+        <v>1510.699015880196</v>
       </c>
       <c r="AB14" t="n">
-        <v>1967.84593811868</v>
+        <v>2067.005040864132</v>
       </c>
       <c r="AC14" t="n">
-        <v>1780.037483673753</v>
+        <v>1869.732980823853</v>
       </c>
       <c r="AD14" t="n">
-        <v>1438227.22409855</v>
+        <v>1510699.015880196</v>
       </c>
       <c r="AE14" t="n">
-        <v>1967845.93811868</v>
+        <v>2067005.040864132</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.437566986759815e-06</v>
+        <v>2.678078262017991e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.65520833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1780037.483673753</v>
+        <v>1869732.980823854</v>
       </c>
     </row>
     <row r="15">
@@ -14844,28 +14844,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1444.598450727946</v>
+        <v>1517.070242509592</v>
       </c>
       <c r="AB15" t="n">
-        <v>1976.563331471701</v>
+        <v>2075.722434217153</v>
       </c>
       <c r="AC15" t="n">
-        <v>1787.922901240101</v>
+        <v>1877.618398390201</v>
       </c>
       <c r="AD15" t="n">
-        <v>1444598.450727946</v>
+        <v>1517070.242509592</v>
       </c>
       <c r="AE15" t="n">
-        <v>1976563.331471701</v>
+        <v>2075722.434217153</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437419936126963e-06</v>
+        <v>2.677804317842252e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1787922.901240101</v>
+        <v>1877618.398390201</v>
       </c>
     </row>
   </sheetData>
@@ -15141,28 +15141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3100.553138702863</v>
+        <v>3200.637490104845</v>
       </c>
       <c r="AB2" t="n">
-        <v>4242.313591124056</v>
+        <v>4379.253416122214</v>
       </c>
       <c r="AC2" t="n">
-        <v>3837.433136111536</v>
+        <v>3961.303616408117</v>
       </c>
       <c r="AD2" t="n">
-        <v>3100553.138702863</v>
+        <v>3200637.490104845</v>
       </c>
       <c r="AE2" t="n">
-        <v>4242313.591124056</v>
+        <v>4379253.416122214</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.30018456236536e-07</v>
+        <v>1.864219535594174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3837433.136111537</v>
+        <v>3961303.616408117</v>
       </c>
     </row>
     <row r="3">
@@ -15247,28 +15247,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1716.293347350395</v>
+        <v>1794.051390919587</v>
       </c>
       <c r="AB3" t="n">
-        <v>2348.308275363421</v>
+        <v>2454.700261017563</v>
       </c>
       <c r="AC3" t="n">
-        <v>2124.1890294341</v>
+        <v>2220.427113299501</v>
       </c>
       <c r="AD3" t="n">
-        <v>1716293.347350395</v>
+        <v>1794051.390919587</v>
       </c>
       <c r="AE3" t="n">
-        <v>2348308.275363421</v>
+        <v>2454700.261017563</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.290667077565347e-06</v>
+        <v>2.587138743119318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.83958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2124189.0294341</v>
+        <v>2220427.113299501</v>
       </c>
     </row>
     <row r="4">
@@ -15353,28 +15353,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1422.74253184785</v>
+        <v>1489.465432782504</v>
       </c>
       <c r="AB4" t="n">
-        <v>1946.659099044864</v>
+        <v>2037.952315710297</v>
       </c>
       <c r="AC4" t="n">
-        <v>1760.872686785227</v>
+        <v>1843.453006982945</v>
       </c>
       <c r="AD4" t="n">
-        <v>1422742.53184785</v>
+        <v>1489465.432782504</v>
       </c>
       <c r="AE4" t="n">
-        <v>1946659.099044864</v>
+        <v>2037952.315710297</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417936110235417e-06</v>
+        <v>2.842249182475345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1760872.686785226</v>
+        <v>1843453.006982945</v>
       </c>
     </row>
     <row r="5">
@@ -15459,28 +15459,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1277.470923159628</v>
+        <v>1333.073430113724</v>
       </c>
       <c r="AB5" t="n">
-        <v>1747.892075106581</v>
+        <v>1823.969878130658</v>
       </c>
       <c r="AC5" t="n">
-        <v>1581.075708640344</v>
+        <v>1649.892752919669</v>
       </c>
       <c r="AD5" t="n">
-        <v>1277470.923159628</v>
+        <v>1333073.430113724</v>
       </c>
       <c r="AE5" t="n">
-        <v>1747892.075106581</v>
+        <v>1823969.878130658</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483320575769665e-06</v>
+        <v>2.973312170694505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1581075.708640344</v>
+        <v>1649892.752919669</v>
       </c>
     </row>
     <row r="6">
@@ -15565,28 +15565,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1164.789097032533</v>
+        <v>1231.426657112616</v>
       </c>
       <c r="AB6" t="n">
-        <v>1593.71582942817</v>
+        <v>1684.892278971406</v>
       </c>
       <c r="AC6" t="n">
-        <v>1441.61382746176</v>
+        <v>1524.08852462754</v>
       </c>
       <c r="AD6" t="n">
-        <v>1164789.097032533</v>
+        <v>1231426.657112616</v>
       </c>
       <c r="AE6" t="n">
-        <v>1593715.82942817</v>
+        <v>1684892.278971406</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.523410321060737e-06</v>
+        <v>3.053671959091653e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.878125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1441613.82746176</v>
+        <v>1524088.52462754</v>
       </c>
     </row>
     <row r="7">
@@ -15671,28 +15671,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1156.601748223932</v>
+        <v>1223.239308304015</v>
       </c>
       <c r="AB7" t="n">
-        <v>1582.513537587905</v>
+        <v>1673.689987131141</v>
       </c>
       <c r="AC7" t="n">
-        <v>1431.480666632214</v>
+        <v>1513.955363797995</v>
       </c>
       <c r="AD7" t="n">
-        <v>1156601.748223932</v>
+        <v>1223239.308304015</v>
       </c>
       <c r="AE7" t="n">
-        <v>1582513.537587905</v>
+        <v>1673689.987131141</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>3.060368608124749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.853125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1431480.666632214</v>
+        <v>1513955.363797995</v>
       </c>
     </row>
     <row r="8">
@@ -15777,28 +15777,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1163.775851477393</v>
+        <v>1230.413411557476</v>
       </c>
       <c r="AB8" t="n">
-        <v>1592.329462158388</v>
+        <v>1683.505911701625</v>
       </c>
       <c r="AC8" t="n">
-        <v>1440.359773138428</v>
+        <v>1522.834470304208</v>
       </c>
       <c r="AD8" t="n">
-        <v>1163775.851477393</v>
+        <v>1230413.411557476</v>
       </c>
       <c r="AE8" t="n">
-        <v>1592329.462158388</v>
+        <v>1683505.911701625</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>3.060368608124749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1440359.773138428</v>
+        <v>1522834.470304208</v>
       </c>
     </row>
   </sheetData>
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2094.423479394737</v>
+        <v>2179.414879249121</v>
       </c>
       <c r="AB2" t="n">
-        <v>2865.682603950564</v>
+        <v>2981.971586787263</v>
       </c>
       <c r="AC2" t="n">
-        <v>2592.185878240317</v>
+        <v>2697.376403767695</v>
       </c>
       <c r="AD2" t="n">
-        <v>2094423.479394737</v>
+        <v>2179414.879249121</v>
       </c>
       <c r="AE2" t="n">
-        <v>2865682.603950564</v>
+        <v>2981971.586787263</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119903186218623e-06</v>
+        <v>2.342907501981796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2592185.878240317</v>
+        <v>2697376.403767695</v>
       </c>
     </row>
     <row r="3">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1308.944666248785</v>
+        <v>1372.730908943997</v>
       </c>
       <c r="AB3" t="n">
-        <v>1790.955838924715</v>
+        <v>1878.230990230726</v>
       </c>
       <c r="AC3" t="n">
-        <v>1620.029527280047</v>
+        <v>1698.975260636856</v>
       </c>
       <c r="AD3" t="n">
-        <v>1308944.666248785</v>
+        <v>1372730.908943997</v>
       </c>
       <c r="AE3" t="n">
-        <v>1790955.838924715</v>
+        <v>1878230.990230726</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.434596312976416e-06</v>
+        <v>3.00126520341172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1620029.527280047</v>
+        <v>1698975.260636856</v>
       </c>
     </row>
     <row r="4">
@@ -16286,28 +16286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1087.521928571787</v>
+        <v>1140.748263114699</v>
       </c>
       <c r="AB4" t="n">
-        <v>1487.995480753286</v>
+        <v>1560.822099855051</v>
       </c>
       <c r="AC4" t="n">
-        <v>1345.983280484965</v>
+        <v>1411.85942927246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1087521.928571787</v>
+        <v>1140748.263114699</v>
       </c>
       <c r="AE4" t="n">
-        <v>1487995.480753286</v>
+        <v>1560822.09985505</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545294053194534e-06</v>
+        <v>3.232851798754105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.17083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1345983.280484965</v>
+        <v>1411859.42927246</v>
       </c>
     </row>
     <row r="5">
@@ -16392,28 +16392,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1054.65176621894</v>
+        <v>1107.878100761852</v>
       </c>
       <c r="AB5" t="n">
-        <v>1443.021074492902</v>
+        <v>1515.847693594667</v>
       </c>
       <c r="AC5" t="n">
-        <v>1305.301168436097</v>
+        <v>1371.177317223591</v>
       </c>
       <c r="AD5" t="n">
-        <v>1054651.76621894</v>
+        <v>1107878.100761852</v>
       </c>
       <c r="AE5" t="n">
-        <v>1443021.074492902</v>
+        <v>1515847.693594667</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.561368425651356e-06</v>
+        <v>3.266480391191548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.05520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1305301.168436097</v>
+        <v>1371177.317223591</v>
       </c>
     </row>
     <row r="6">
@@ -16498,28 +16498,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1060.334245793277</v>
+        <v>1113.560580336188</v>
       </c>
       <c r="AB6" t="n">
-        <v>1450.796093739815</v>
+        <v>1523.622712841579</v>
       </c>
       <c r="AC6" t="n">
-        <v>1312.334150758392</v>
+        <v>1378.210299545887</v>
       </c>
       <c r="AD6" t="n">
-        <v>1060334.245793276</v>
+        <v>1113560.580336188</v>
       </c>
       <c r="AE6" t="n">
-        <v>1450796.093739815</v>
+        <v>1523622.712841579</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562859862271061e-06</v>
+        <v>3.26960056987131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.04583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1312334.150758392</v>
+        <v>1378210.299545887</v>
       </c>
     </row>
   </sheetData>
@@ -30272,28 +30272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1528.048744604434</v>
+        <v>1610.001144518443</v>
       </c>
       <c r="AB2" t="n">
-        <v>2090.743705120645</v>
+        <v>2202.874594167708</v>
       </c>
       <c r="AC2" t="n">
-        <v>1891.20606028115</v>
+        <v>1992.635334654253</v>
       </c>
       <c r="AD2" t="n">
-        <v>1528048.744604434</v>
+        <v>1610001.144518443</v>
       </c>
       <c r="AE2" t="n">
-        <v>2090743.705120645</v>
+        <v>2202874.594167708</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278657016274342e-06</v>
+        <v>2.779615932495888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.965625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1891206.060281151</v>
+        <v>1992635.334654253</v>
       </c>
     </row>
     <row r="3">
@@ -30378,28 +30378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1009.250894948541</v>
+        <v>1070.672613965313</v>
       </c>
       <c r="AB3" t="n">
-        <v>1380.901599475663</v>
+        <v>1464.94150516941</v>
       </c>
       <c r="AC3" t="n">
-        <v>1249.110288929272</v>
+        <v>1325.129543974356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1009250.894948542</v>
+        <v>1070672.613965313</v>
       </c>
       <c r="AE3" t="n">
-        <v>1380901.599475663</v>
+        <v>1464941.50516941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.5561936444213e-06</v>
+        <v>3.382940532939761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>1249110.288929272</v>
+        <v>1325129.543974356</v>
       </c>
     </row>
     <row r="4">
@@ -30484,28 +30484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>975.5340414920651</v>
+        <v>1036.955760508837</v>
       </c>
       <c r="AB4" t="n">
-        <v>1334.768713093918</v>
+        <v>1418.808618787665</v>
       </c>
       <c r="AC4" t="n">
-        <v>1207.380260475889</v>
+        <v>1283.399515520973</v>
       </c>
       <c r="AD4" t="n">
-        <v>975534.0414920651</v>
+        <v>1036955.760508837</v>
       </c>
       <c r="AE4" t="n">
-        <v>1334768.713093919</v>
+        <v>1418808.618787665</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.579335982160546e-06</v>
+        <v>3.433248637362196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.30625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1207380.260475889</v>
+        <v>1283399.515520973</v>
       </c>
     </row>
   </sheetData>
@@ -30781,28 +30781,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.118640236953</v>
+        <v>894.1076529371757</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.382654640143</v>
+        <v>1223.357535994386</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.068941635939</v>
+        <v>1106.602009752167</v>
       </c>
       <c r="AD2" t="n">
-        <v>837118.6402369529</v>
+        <v>894107.6529371757</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145382.654640143</v>
+        <v>1223357.535994386</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549020416322193e-06</v>
+        <v>3.684386827270063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.37291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036068.941635939</v>
+        <v>1106602.009752167</v>
       </c>
     </row>
     <row r="3">
@@ -30887,28 +30887,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>847.7020740352532</v>
+        <v>904.691086735476</v>
       </c>
       <c r="AB3" t="n">
-        <v>1159.863375671124</v>
+        <v>1237.838257025367</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.167642975543</v>
+        <v>1119.70071109177</v>
       </c>
       <c r="AD3" t="n">
-        <v>847702.0740352531</v>
+        <v>904691.086735476</v>
       </c>
       <c r="AE3" t="n">
-        <v>1159863.375671124</v>
+        <v>1237838.257025367</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.549940371433443e-06</v>
+        <v>3.686574965307402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.365625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049167.642975543</v>
+        <v>1119700.71109177</v>
       </c>
     </row>
   </sheetData>
@@ -31184,28 +31184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4464.67960050985</v>
+        <v>4591.350078967968</v>
       </c>
       <c r="AB2" t="n">
-        <v>6108.771597180614</v>
+        <v>6282.087734114128</v>
       </c>
       <c r="AC2" t="n">
-        <v>5525.759009660251</v>
+        <v>5682.534097735548</v>
       </c>
       <c r="AD2" t="n">
-        <v>4464679.60050985</v>
+        <v>4591350.078967968</v>
       </c>
       <c r="AE2" t="n">
-        <v>6108771.597180613</v>
+        <v>6282087.734114127</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.733492875081512e-07</v>
+        <v>1.50074476444811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>5525759.009660251</v>
+        <v>5682534.097735548</v>
       </c>
     </row>
     <row r="3">
@@ -31290,28 +31290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2146.811011577807</v>
+        <v>2227.473805685885</v>
       </c>
       <c r="AB3" t="n">
-        <v>2937.361536658246</v>
+        <v>3047.727930148417</v>
       </c>
       <c r="AC3" t="n">
-        <v>2657.023874212392</v>
+        <v>2756.857054007952</v>
       </c>
       <c r="AD3" t="n">
-        <v>2146811.011577807</v>
+        <v>2227473.805685885</v>
       </c>
       <c r="AE3" t="n">
-        <v>2937361.536658246</v>
+        <v>3047727.930148417</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172179640317767e-06</v>
+        <v>2.274706250609968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.67395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2657023.874212392</v>
+        <v>2756857.054007952</v>
       </c>
     </row>
     <row r="4">
@@ -31396,28 +31396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1748.04805147564</v>
+        <v>1817.102337936541</v>
       </c>
       <c r="AB4" t="n">
-        <v>2391.756462466255</v>
+        <v>2486.23958366217</v>
       </c>
       <c r="AC4" t="n">
-        <v>2163.490582539753</v>
+        <v>2248.956367256623</v>
       </c>
       <c r="AD4" t="n">
-        <v>1748048.05147564</v>
+        <v>1817102.337936541</v>
       </c>
       <c r="AE4" t="n">
-        <v>2391756.462466255</v>
+        <v>2486239.58366217</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.31420140561224e-06</v>
+        <v>2.550310591554179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.19583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2163490.582539753</v>
+        <v>2248956.367256623</v>
       </c>
     </row>
     <row r="5">
@@ -31502,28 +31502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1559.735885108229</v>
+        <v>1628.875422915151</v>
       </c>
       <c r="AB5" t="n">
-        <v>2134.099448695915</v>
+        <v>2228.699214544479</v>
       </c>
       <c r="AC5" t="n">
-        <v>1930.423992539765</v>
+        <v>2015.995289507347</v>
       </c>
       <c r="AD5" t="n">
-        <v>1559735.885108229</v>
+        <v>1628875.422915151</v>
       </c>
       <c r="AE5" t="n">
-        <v>2134099.448695915</v>
+        <v>2228699.214544479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387751138885001e-06</v>
+        <v>2.69303960019051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.54895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1930423.992539765</v>
+        <v>2015995.289507347</v>
       </c>
     </row>
     <row r="6">
@@ -31608,28 +31608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1446.324598792759</v>
+        <v>1503.940969807078</v>
       </c>
       <c r="AB6" t="n">
-        <v>1978.925123406256</v>
+        <v>2057.758384082941</v>
       </c>
       <c r="AC6" t="n">
-        <v>1790.059287067217</v>
+        <v>1861.368811988096</v>
       </c>
       <c r="AD6" t="n">
-        <v>1446324.598792759</v>
+        <v>1503940.969807078</v>
       </c>
       <c r="AE6" t="n">
-        <v>1978925.123406256</v>
+        <v>2057758.384082941</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433604319879316e-06</v>
+        <v>2.782021283398933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1790059.287067217</v>
+        <v>1861368.811988096</v>
       </c>
     </row>
     <row r="7">
@@ -31714,28 +31714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1349.357489249277</v>
+        <v>1418.411686201627</v>
       </c>
       <c r="AB7" t="n">
-        <v>1846.250446241909</v>
+        <v>1940.733444968275</v>
       </c>
       <c r="AC7" t="n">
-        <v>1670.046894881356</v>
+        <v>1755.512568816999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1349357.489249277</v>
+        <v>1418411.686201627</v>
       </c>
       <c r="AE7" t="n">
-        <v>1846250.446241909</v>
+        <v>1940733.444968275</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465147615529768e-06</v>
+        <v>2.843233515136271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.93958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1670046.894881356</v>
+        <v>1755512.568816999</v>
       </c>
     </row>
     <row r="8">
@@ -31820,28 +31820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1274.535686707114</v>
+        <v>1343.589883659463</v>
       </c>
       <c r="AB8" t="n">
-        <v>1743.875955098759</v>
+        <v>1838.358953825126</v>
       </c>
       <c r="AC8" t="n">
-        <v>1577.442881489408</v>
+        <v>1662.908555425051</v>
       </c>
       <c r="AD8" t="n">
-        <v>1274535.686707114</v>
+        <v>1343589.883659463</v>
       </c>
       <c r="AE8" t="n">
-        <v>1743875.955098759</v>
+        <v>1838358.953825126</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489305163905968e-06</v>
+        <v>2.890113126759501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.76145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1577442.881489408</v>
+        <v>1662908.555425051</v>
       </c>
     </row>
     <row r="9">
@@ -31926,28 +31926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1265.794410941965</v>
+        <v>1334.848607894315</v>
       </c>
       <c r="AB9" t="n">
-        <v>1731.915755959013</v>
+        <v>1826.398754685379</v>
       </c>
       <c r="AC9" t="n">
-        <v>1566.624146969314</v>
+        <v>1652.089820904958</v>
       </c>
       <c r="AD9" t="n">
-        <v>1265794.410941965</v>
+        <v>1334848.607894315</v>
       </c>
       <c r="AE9" t="n">
-        <v>1731915.755959013</v>
+        <v>1826398.754685379</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488074206026926e-06</v>
+        <v>2.887724356740483e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1566624.146969314</v>
+        <v>1652089.820904958</v>
       </c>
     </row>
     <row r="10">
@@ -32032,28 +32032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1271.680405982118</v>
+        <v>1340.734602934468</v>
       </c>
       <c r="AB10" t="n">
-        <v>1739.969234044725</v>
+        <v>1834.452232771091</v>
       </c>
       <c r="AC10" t="n">
-        <v>1573.909012409654</v>
+        <v>1659.374686345297</v>
       </c>
       <c r="AD10" t="n">
-        <v>1271680.405982118</v>
+        <v>1340734.602934468</v>
       </c>
       <c r="AE10" t="n">
-        <v>1739969.234044725</v>
+        <v>1834452.232771091</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.488381945496686e-06</v>
+        <v>2.888321549245238e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.76875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1573909.012409654</v>
+        <v>1659374.686345297</v>
       </c>
     </row>
   </sheetData>
@@ -32329,28 +32329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7290.310045039738</v>
+        <v>7457.954993188338</v>
       </c>
       <c r="AB2" t="n">
-        <v>9974.923829403917</v>
+        <v>10204.30304343398</v>
       </c>
       <c r="AC2" t="n">
-        <v>9022.931099018755</v>
+        <v>9230.418682797521</v>
       </c>
       <c r="AD2" t="n">
-        <v>7290310.045039738</v>
+        <v>7457954.993188337</v>
       </c>
       <c r="AE2" t="n">
-        <v>9974923.829403916</v>
+        <v>10204303.04343398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965053884739408e-07</v>
+        <v>1.119278075634848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>9022931.099018754</v>
+        <v>9230418.682797521</v>
       </c>
     </row>
     <row r="3">
@@ -32435,28 +32435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2783.262277892956</v>
+        <v>2879.07158267138</v>
       </c>
       <c r="AB3" t="n">
-        <v>3808.182237479058</v>
+        <v>3939.272755085119</v>
       </c>
       <c r="AC3" t="n">
-        <v>3444.734669551251</v>
+        <v>3563.314092143682</v>
       </c>
       <c r="AD3" t="n">
-        <v>2783262.277892956</v>
+        <v>2879071.582671381</v>
       </c>
       <c r="AE3" t="n">
-        <v>3808182.237479058</v>
+        <v>3939272.755085119</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036285398967033e-06</v>
+        <v>1.944477869901057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.903125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3444734.669551251</v>
+        <v>3563314.092143682</v>
       </c>
     </row>
     <row r="4">
@@ -32541,28 +32541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2174.902726873759</v>
+        <v>2258.725200948062</v>
       </c>
       <c r="AB4" t="n">
-        <v>2975.79786084518</v>
+        <v>3090.487467860383</v>
       </c>
       <c r="AC4" t="n">
-        <v>2691.791889564644</v>
+        <v>2795.535681454075</v>
       </c>
       <c r="AD4" t="n">
-        <v>2174902.726873759</v>
+        <v>2258725.200948062</v>
       </c>
       <c r="AE4" t="n">
-        <v>2975797.86084518</v>
+        <v>3090487.467860383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196124526179289e-06</v>
+        <v>2.244398766131324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2691791.889564645</v>
+        <v>2795535.681454075</v>
       </c>
     </row>
     <row r="5">
@@ -32647,28 +32647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1935.459792595071</v>
+        <v>2007.295525473798</v>
       </c>
       <c r="AB5" t="n">
-        <v>2648.181474688351</v>
+        <v>2746.470293581891</v>
       </c>
       <c r="AC5" t="n">
-        <v>2395.442751490138</v>
+        <v>2484.351023457701</v>
       </c>
       <c r="AD5" t="n">
-        <v>1935459.792595071</v>
+        <v>2007295.525473798</v>
       </c>
       <c r="AE5" t="n">
-        <v>2648181.474688352</v>
+        <v>2746470.293581891</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279602660335598e-06</v>
+        <v>2.401036488374033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.07083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2395442.751490138</v>
+        <v>2484351.023457701</v>
       </c>
     </row>
     <row r="6">
@@ -32753,28 +32753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1783.623845408396</v>
+        <v>1855.544829633143</v>
       </c>
       <c r="AB6" t="n">
-        <v>2440.432833218311</v>
+        <v>2538.8382967645</v>
       </c>
       <c r="AC6" t="n">
-        <v>2207.521348784949</v>
+        <v>2296.535133003224</v>
       </c>
       <c r="AD6" t="n">
-        <v>1783623.845408396</v>
+        <v>1855544.829633143</v>
       </c>
       <c r="AE6" t="n">
-        <v>2440432.833218311</v>
+        <v>2538838.2967645</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.33194330217783e-06</v>
+        <v>2.499248062000457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.596875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2207521.348784949</v>
+        <v>2296535.133003225</v>
       </c>
     </row>
     <row r="7">
@@ -32859,28 +32859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1688.296325675684</v>
+        <v>1760.046717699838</v>
       </c>
       <c r="AB7" t="n">
-        <v>2310.001515166657</v>
+        <v>2408.173566937998</v>
       </c>
       <c r="AC7" t="n">
-        <v>2089.538212666639</v>
+        <v>2178.340861602264</v>
       </c>
       <c r="AD7" t="n">
-        <v>1688296.325675684</v>
+        <v>1760046.717699838</v>
       </c>
       <c r="AE7" t="n">
-        <v>2310001.515166657</v>
+        <v>2408173.566937998</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366935912587934e-06</v>
+        <v>2.564907924254949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.29895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2089538.212666639</v>
+        <v>2178340.861602264</v>
       </c>
     </row>
     <row r="8">
@@ -32965,28 +32965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1612.893323922036</v>
+        <v>1672.827566951209</v>
       </c>
       <c r="AB8" t="n">
-        <v>2206.831801621654</v>
+        <v>2288.83647704636</v>
       </c>
       <c r="AC8" t="n">
-        <v>1996.214871782769</v>
+        <v>2070.393136079226</v>
       </c>
       <c r="AD8" t="n">
-        <v>1612893.323922036</v>
+        <v>1672827.566951209</v>
       </c>
       <c r="AE8" t="n">
-        <v>2206831.801621655</v>
+        <v>2288836.47704636</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393625191714285e-06</v>
+        <v>2.614987480211766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1996214.871782769</v>
+        <v>2070393.136079226</v>
       </c>
     </row>
     <row r="9">
@@ -33071,28 +33071,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1536.15935617234</v>
+        <v>1607.994999542515</v>
       </c>
       <c r="AB9" t="n">
-        <v>2101.841001682783</v>
+        <v>2200.129698106774</v>
       </c>
       <c r="AC9" t="n">
-        <v>1901.244246434551</v>
+        <v>1990.152407620888</v>
       </c>
       <c r="AD9" t="n">
-        <v>1536159.35617234</v>
+        <v>1607994.999542515</v>
       </c>
       <c r="AE9" t="n">
-        <v>2101841.001682783</v>
+        <v>2200129.698106774</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.413790424831973e-06</v>
+        <v>2.652825366934694e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.925</v>
       </c>
       <c r="AH9" t="n">
-        <v>1901244.246434551</v>
+        <v>1990152.407620888</v>
       </c>
     </row>
     <row r="10">
@@ -33177,28 +33177,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1491.680340672656</v>
+        <v>1563.515984042831</v>
       </c>
       <c r="AB10" t="n">
-        <v>2040.982850400442</v>
+        <v>2139.271546824432</v>
       </c>
       <c r="AC10" t="n">
-        <v>1846.194311695644</v>
+        <v>1935.102472881981</v>
       </c>
       <c r="AD10" t="n">
-        <v>1491680.340672655</v>
+        <v>1563515.984042831</v>
       </c>
       <c r="AE10" t="n">
-        <v>2040982.850400442</v>
+        <v>2139271.546824432</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.424910957801285e-06</v>
+        <v>2.673691848583367e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.83958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1846194.311695644</v>
+        <v>1935102.472881981</v>
       </c>
     </row>
     <row r="11">
@@ -33283,28 +33283,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1431.411857197428</v>
+        <v>1503.247500567603</v>
       </c>
       <c r="AB11" t="n">
-        <v>1958.520852451797</v>
+        <v>2056.809548875788</v>
       </c>
       <c r="AC11" t="n">
-        <v>1771.602371095077</v>
+        <v>1860.510532281414</v>
       </c>
       <c r="AD11" t="n">
-        <v>1431411.857197428</v>
+        <v>1503247.500567603</v>
       </c>
       <c r="AE11" t="n">
-        <v>1958520.852451797</v>
+        <v>2056809.548875788</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.440183156412475e-06</v>
+        <v>2.702348483380879e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.72395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1771602.371095077</v>
+        <v>1860510.532281414</v>
       </c>
     </row>
     <row r="12">
@@ -33389,28 +33389,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1401.137566344424</v>
+        <v>1472.9732097146</v>
       </c>
       <c r="AB12" t="n">
-        <v>1917.098232099268</v>
+        <v>2015.386928523259</v>
       </c>
       <c r="AC12" t="n">
-        <v>1734.133067491981</v>
+        <v>1823.041228678318</v>
       </c>
       <c r="AD12" t="n">
-        <v>1401137.566344424</v>
+        <v>1472973.2097146</v>
       </c>
       <c r="AE12" t="n">
-        <v>1917098.232099268</v>
+        <v>2015386.928523259</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.447745118831608e-06</v>
+        <v>2.716537690901977e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.66875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1734133.067491981</v>
+        <v>1823041.228678318</v>
       </c>
     </row>
     <row r="13">
@@ -33495,28 +33495,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1403.008785684501</v>
+        <v>1474.844429054676</v>
       </c>
       <c r="AB13" t="n">
-        <v>1919.658516952732</v>
+        <v>2017.947213376723</v>
       </c>
       <c r="AC13" t="n">
-        <v>1736.449002352413</v>
+        <v>1825.35716353875</v>
       </c>
       <c r="AD13" t="n">
-        <v>1403008.785684501</v>
+        <v>1474844.429054676</v>
       </c>
       <c r="AE13" t="n">
-        <v>1919658.516952732</v>
+        <v>2017947.213376723</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.44818994015038e-06</v>
+        <v>2.717372350167924e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.665625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1736449.002352413</v>
+        <v>1825357.16353875</v>
       </c>
     </row>
     <row r="14">
@@ -33601,28 +33601,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1409.732344362428</v>
+        <v>1481.567987732604</v>
       </c>
       <c r="AB14" t="n">
-        <v>1928.857986558346</v>
+        <v>2027.146682982337</v>
       </c>
       <c r="AC14" t="n">
-        <v>1744.770487490404</v>
+        <v>1833.678648676741</v>
       </c>
       <c r="AD14" t="n">
-        <v>1409732.344362428</v>
+        <v>1481567.987732604</v>
       </c>
       <c r="AE14" t="n">
-        <v>1928857.986558346</v>
+        <v>2027146.682982337</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.448041666377456e-06</v>
+        <v>2.717094130412608e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.665625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1744770.487490404</v>
+        <v>1833678.648676741</v>
       </c>
     </row>
   </sheetData>
@@ -33898,28 +33898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.148756887068</v>
+        <v>851.2701076297018</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.011655725164</v>
+        <v>1164.745316645581</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.223174898106</v>
+        <v>1053.583658355245</v>
       </c>
       <c r="AD2" t="n">
-        <v>787148.7568870679</v>
+        <v>851270.1076297017</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077011.655725164</v>
+        <v>1164745.316645581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467409009211794e-06</v>
+        <v>3.669878571056226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.525</v>
       </c>
       <c r="AH2" t="n">
-        <v>974223.174898106</v>
+        <v>1053583.658355245</v>
       </c>
     </row>
   </sheetData>
@@ -34195,28 +34195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2404.72234627848</v>
+        <v>2491.148670727202</v>
       </c>
       <c r="AB2" t="n">
-        <v>3290.247203040945</v>
+        <v>3408.499513012031</v>
       </c>
       <c r="AC2" t="n">
-        <v>2976.230627873546</v>
+        <v>3083.197103349146</v>
       </c>
       <c r="AD2" t="n">
-        <v>2404722.34627848</v>
+        <v>2491148.670727202</v>
       </c>
       <c r="AE2" t="n">
-        <v>3290247.203040945</v>
+        <v>3408499.513012032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051976955104574e-06</v>
+        <v>2.166318741969419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2976230.627873546</v>
+        <v>3083197.103349146</v>
       </c>
     </row>
     <row r="3">
@@ -34301,28 +34301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1445.036877461549</v>
+        <v>1509.835307961586</v>
       </c>
       <c r="AB3" t="n">
-        <v>1977.163206270638</v>
+        <v>2065.823277585785</v>
       </c>
       <c r="AC3" t="n">
-        <v>1788.465524830156</v>
+        <v>1868.664003374178</v>
       </c>
       <c r="AD3" t="n">
-        <v>1445036.877461549</v>
+        <v>1509835.307961586</v>
       </c>
       <c r="AE3" t="n">
-        <v>1977163.206270638</v>
+        <v>2065823.277585785</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382822237787261e-06</v>
+        <v>2.847622959794635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.30104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1788465.524830156</v>
+        <v>1868664.003374177</v>
       </c>
     </row>
     <row r="4">
@@ -34407,28 +34407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1203.812155934927</v>
+        <v>1268.525245580392</v>
       </c>
       <c r="AB4" t="n">
-        <v>1647.108900194281</v>
+        <v>1735.65220438723</v>
       </c>
       <c r="AC4" t="n">
-        <v>1489.911138491599</v>
+        <v>1570.003994003681</v>
       </c>
       <c r="AD4" t="n">
-        <v>1203812.155934927</v>
+        <v>1268525.245580392</v>
       </c>
       <c r="AE4" t="n">
-        <v>1647108.900194281</v>
+        <v>1735652.20438723</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498928356241057e-06</v>
+        <v>3.086718368912961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1489911.138491599</v>
+        <v>1570003.994003681</v>
       </c>
     </row>
     <row r="5">
@@ -34513,28 +34513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1082.687826430336</v>
+        <v>1147.486167421821</v>
       </c>
       <c r="AB5" t="n">
-        <v>1481.381248937817</v>
+        <v>1570.041197783415</v>
       </c>
       <c r="AC5" t="n">
-        <v>1340.000301670832</v>
+        <v>1420.198669433626</v>
       </c>
       <c r="AD5" t="n">
-        <v>1082687.826430336</v>
+        <v>1147486.167421822</v>
       </c>
       <c r="AE5" t="n">
-        <v>1481381.248937817</v>
+        <v>1570041.197783415</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549061377851908e-06</v>
+        <v>3.189956471021717e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1340000.301670832</v>
+        <v>1420198.669433626</v>
       </c>
     </row>
     <row r="6">
@@ -34619,28 +34619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1083.274293736519</v>
+        <v>1148.072634728005</v>
       </c>
       <c r="AB6" t="n">
-        <v>1482.183679379248</v>
+        <v>1570.843628224846</v>
       </c>
       <c r="AC6" t="n">
-        <v>1340.726149277151</v>
+        <v>1420.924517039945</v>
       </c>
       <c r="AD6" t="n">
-        <v>1083274.293736519</v>
+        <v>1148072.634728005</v>
       </c>
       <c r="AE6" t="n">
-        <v>1482183.679379248</v>
+        <v>1570843.628224846</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.551510874021819e-06</v>
+        <v>3.195000677965142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1340726.149277151</v>
+        <v>1420924.517039945</v>
       </c>
     </row>
   </sheetData>
@@ -34916,28 +34916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3510.295276939156</v>
+        <v>3622.82300937232</v>
       </c>
       <c r="AB2" t="n">
-        <v>4802.940861206344</v>
+        <v>4956.906269094595</v>
       </c>
       <c r="AC2" t="n">
-        <v>4344.554926382465</v>
+        <v>4483.826091833663</v>
       </c>
       <c r="AD2" t="n">
-        <v>3510295.276939156</v>
+        <v>3622823.00937232</v>
       </c>
       <c r="AE2" t="n">
-        <v>4802940.861206344</v>
+        <v>4956906.269094595</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.744723889047281e-07</v>
+        <v>1.732490803090821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.728125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4344554.926382465</v>
+        <v>4483826.091833663</v>
       </c>
     </row>
     <row r="3">
@@ -35022,28 +35022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1862.881763924548</v>
+        <v>1930.449697405741</v>
       </c>
       <c r="AB3" t="n">
-        <v>2548.877013944697</v>
+        <v>2641.326441420509</v>
       </c>
       <c r="AC3" t="n">
-        <v>2305.615769105172</v>
+        <v>2389.241952976279</v>
       </c>
       <c r="AD3" t="n">
-        <v>1862881.763924548</v>
+        <v>1930449.697405741</v>
       </c>
       <c r="AE3" t="n">
-        <v>2548877.013944697</v>
+        <v>2641326.441420509</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249605635924987e-06</v>
+        <v>2.475698831888861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.10520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2305615.769105172</v>
+        <v>2389241.952976279</v>
       </c>
     </row>
     <row r="4">
@@ -35128,28 +35128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1528.85511558079</v>
+        <v>1596.422959553431</v>
       </c>
       <c r="AB4" t="n">
-        <v>2091.847017465072</v>
+        <v>2184.296322471336</v>
       </c>
       <c r="AC4" t="n">
-        <v>1892.204074043934</v>
+        <v>1975.830147133814</v>
       </c>
       <c r="AD4" t="n">
-        <v>1528855.11558079</v>
+        <v>1596422.959553431</v>
       </c>
       <c r="AE4" t="n">
-        <v>2091847.017465072</v>
+        <v>2184296.322471336</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.380886550116905e-06</v>
+        <v>2.735790493266213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1892204.074043934</v>
+        <v>1975830.147133814</v>
       </c>
     </row>
     <row r="5">
@@ -35234,28 +35234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1374.474809683827</v>
+        <v>1441.872061455876</v>
       </c>
       <c r="AB5" t="n">
-        <v>1880.617072158432</v>
+        <v>1972.832965389849</v>
       </c>
       <c r="AC5" t="n">
-        <v>1701.133618254269</v>
+        <v>1784.548556061498</v>
       </c>
       <c r="AD5" t="n">
-        <v>1374474.809683827</v>
+        <v>1441872.061455876</v>
       </c>
       <c r="AE5" t="n">
-        <v>1880617.072158432</v>
+        <v>1972832.965389849</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.449907294224992e-06</v>
+        <v>2.872533294876582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.29479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1701133.618254269</v>
+        <v>1784548.556061498</v>
       </c>
     </row>
     <row r="6">
@@ -35340,28 +35340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.495756951099</v>
+        <v>1320.978260069168</v>
       </c>
       <c r="AB6" t="n">
-        <v>1715.088194990389</v>
+        <v>1807.420732874454</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.402584801906</v>
+        <v>1634.923034859847</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253495.756951099</v>
+        <v>1320978.260069168</v>
       </c>
       <c r="AE6" t="n">
-        <v>1715088.194990389</v>
+        <v>1807420.732874454</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.493143523449875e-06</v>
+        <v>2.958192225270321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551402.584801906</v>
+        <v>1634923.034859847</v>
       </c>
     </row>
     <row r="7">
@@ -35446,28 +35446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1190.641416121902</v>
+        <v>1258.123919239972</v>
       </c>
       <c r="AB7" t="n">
-        <v>1629.088112930069</v>
+        <v>1721.420650814135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1473.610229871549</v>
+        <v>1557.13067992949</v>
       </c>
       <c r="AD7" t="n">
-        <v>1190641.416121902</v>
+        <v>1258123.919239972</v>
       </c>
       <c r="AE7" t="n">
-        <v>1629088.112930069</v>
+        <v>1721420.650814135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514368581432999e-06</v>
+        <v>3.000242972918156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.81458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1473610.229871549</v>
+        <v>1557130.67992949</v>
       </c>
     </row>
     <row r="8">
@@ -35552,28 +35552,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1192.808986021844</v>
+        <v>1260.291489139914</v>
       </c>
       <c r="AB8" t="n">
-        <v>1632.053877693605</v>
+        <v>1724.386415577671</v>
       </c>
       <c r="AC8" t="n">
-        <v>1476.29294620853</v>
+        <v>1559.813396266471</v>
       </c>
       <c r="AD8" t="n">
-        <v>1192808.986021844</v>
+        <v>1260291.489139914</v>
       </c>
       <c r="AE8" t="n">
-        <v>1632053.877693605</v>
+        <v>1724386.415577671</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51531191734336e-06</v>
+        <v>3.002111895035838e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1476292.94620853</v>
+        <v>1559813.396266472</v>
       </c>
     </row>
   </sheetData>
